--- a/resources/experiment 1/metrics/MAPE/average time/Angina.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Angina.xlsx
@@ -465,10 +465,10 @@
         <v>0.08176149744867574</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08176149744867574</v>
+        <v>0.08176149744867572</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08176149744867574</v>
+        <v>0.08176149744867572</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02180583347722002</v>
+        <v>0.02221210674801416</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02180583347722002</v>
+        <v>0.02232892104023649</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02180583347722002</v>
+        <v>0.02222514405453239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01668647626235181</v>
+        <v>0.02341432668715818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01668647626235182</v>
+        <v>0.02213485332120204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01668647626235182</v>
+        <v>0.02195063456506316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03438632791107276</v>
+        <v>0.01848119518831166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03438632791107276</v>
+        <v>0.01828038281338033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03438632791107276</v>
+        <v>0.01916125283641585</v>
       </c>
     </row>
   </sheetData>
